--- a/BulkImport/Lyon.xlsx
+++ b/BulkImport/Lyon.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25207"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjkuehl\AppData\Local\Box\Box Edit\Documents\aGHMAnSpCkOJ3PRmFvzAZQ==\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Documents\WorkRepo\MysoftProject\BulkImport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="11_6B44CD058B55E64446185A3E19B4256FE0452B9B" revIDLastSave="61" xr10:uidLastSave="{51DD524D-A48D-42B5-B81C-29417AB64735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A18ABB1-DB50-4DCE-9F04-C748305DAAE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="15915" windowWidth="32700" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="Daily_Capacity">'[1]Planning tool'!$N$6</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="120">
   <si>
     <t>Bldg</t>
   </si>
@@ -90,9 +91,6 @@
     <t>1A1</t>
   </si>
   <si>
-    <t>E40105B1</t>
-  </si>
-  <si>
     <t>Lyon Closet</t>
   </si>
   <si>
@@ -120,102 +118,18 @@
     <t>Use for new</t>
   </si>
   <si>
-    <t>E40202B1</t>
-  </si>
-  <si>
-    <t>E40225B1</t>
-  </si>
-  <si>
-    <t>E40318B1</t>
-  </si>
-  <si>
-    <t>E40416B1</t>
-  </si>
-  <si>
-    <t>E40201B1</t>
-  </si>
-  <si>
     <t>E40224B1</t>
   </si>
   <si>
-    <t>E40317B1</t>
-  </si>
-  <si>
-    <t>E40415B1</t>
-  </si>
-  <si>
     <t>118A</t>
   </si>
   <si>
     <t>E40118AB1</t>
   </si>
   <si>
-    <t>E40223B1</t>
-  </si>
-  <si>
-    <t>E40316B1</t>
-  </si>
-  <si>
-    <t>E40414B1</t>
-  </si>
-  <si>
-    <t>E40128B1</t>
-  </si>
-  <si>
-    <t>E40222B1</t>
-  </si>
-  <si>
-    <t>E40315B1</t>
-  </si>
-  <si>
-    <t>E40413B1</t>
-  </si>
-  <si>
-    <t>E40127B1</t>
-  </si>
-  <si>
-    <t>E40221B1</t>
-  </si>
-  <si>
-    <t>E40313B1</t>
-  </si>
-  <si>
-    <t>E40412B1</t>
-  </si>
-  <si>
-    <t>E40125B1</t>
-  </si>
-  <si>
-    <t>E40220B1</t>
-  </si>
-  <si>
-    <t>E40411B1</t>
-  </si>
-  <si>
-    <t>E40121B1</t>
-  </si>
-  <si>
-    <t>E40219B1</t>
-  </si>
-  <si>
-    <t>E40312B1</t>
-  </si>
-  <si>
-    <t>E40410B1</t>
-  </si>
-  <si>
     <t>E40120B1</t>
   </si>
   <si>
-    <t>E40218B1</t>
-  </si>
-  <si>
-    <t>E40311B1</t>
-  </si>
-  <si>
-    <t>E40407B1</t>
-  </si>
-  <si>
     <t>1/1</t>
   </si>
   <si>
@@ -255,105 +169,6 @@
     <t>1A2</t>
   </si>
   <si>
-    <t>E40119B1</t>
-  </si>
-  <si>
-    <t>E40217B1</t>
-  </si>
-  <si>
-    <t>E40309B1</t>
-  </si>
-  <si>
-    <t>E40405B1</t>
-  </si>
-  <si>
-    <t>E40117B1</t>
-  </si>
-  <si>
-    <t>E40216B1</t>
-  </si>
-  <si>
-    <t>E40308B1</t>
-  </si>
-  <si>
-    <t>E40403B1</t>
-  </si>
-  <si>
-    <t>E40115B1</t>
-  </si>
-  <si>
-    <t>E40215B1</t>
-  </si>
-  <si>
-    <t>E40307B1</t>
-  </si>
-  <si>
-    <t>E40324B1</t>
-  </si>
-  <si>
-    <t>E40114B1</t>
-  </si>
-  <si>
-    <t>E40214B1</t>
-  </si>
-  <si>
-    <t>E40305B1</t>
-  </si>
-  <si>
-    <t>E40323B1</t>
-  </si>
-  <si>
-    <t>E40113B1</t>
-  </si>
-  <si>
-    <t>E40213B1</t>
-  </si>
-  <si>
-    <t>E40303B1</t>
-  </si>
-  <si>
-    <t>E40322B1</t>
-  </si>
-  <si>
-    <t>E40111B1</t>
-  </si>
-  <si>
-    <t>E40212B1</t>
-  </si>
-  <si>
-    <t>E40302B1</t>
-  </si>
-  <si>
-    <t>E40321B1</t>
-  </si>
-  <si>
-    <t>E40109B1</t>
-  </si>
-  <si>
-    <t>E40211B1</t>
-  </si>
-  <si>
-    <t>E40301B1</t>
-  </si>
-  <si>
-    <t>E40320B1</t>
-  </si>
-  <si>
-    <t>E40107B1</t>
-  </si>
-  <si>
-    <t>E40203B1</t>
-  </si>
-  <si>
-    <t>E40226B1</t>
-  </si>
-  <si>
-    <t>E40319B1</t>
-  </si>
-  <si>
-    <t>E40417B1</t>
-  </si>
-  <si>
     <t>2/11</t>
   </si>
   <si>
@@ -394,9 +209,6 @@
   </si>
   <si>
     <t>2/23</t>
-  </si>
-  <si>
-    <t>S-CENET</t>
   </si>
   <si>
     <t>WIRELESS-AP-HOSPITALITY</t>
@@ -595,8 +407,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,62 +530,62 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="9"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="1" numFmtId="14" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="2" numFmtId="14" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="9" xfId="1"/>
-    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="4" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="1" numFmtId="14" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="49" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="5" name="Percent" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt formatCode="@" numFmtId="30"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="@" numFmtId="30"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="@" numFmtId="30"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt formatCode="General" numFmtId="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -792,8 +603,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt formatCode="m/d/yyyy" numFmtId="19"/>
-      <border diagonalDown="0" diagonalUp="0">
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
@@ -820,8 +631,8 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" indent="0" justifyLastLine="0" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="bottom" wrapText="0"/>
-      <border diagonalDown="0" diagonalUp="0">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
@@ -848,7 +659,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalDown="0" diagonalUp="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="4"/>
         </left>
@@ -862,7 +673,7 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -898,28 +709,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" displayName="Table8" id="1" mc:Ignorable="xr xr3" name="Table8" ref="B1:M95" totalsRowShown="0" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table8" displayName="Table8" ref="B1:M95" totalsRowShown="0">
   <autoFilter ref="B1:M95" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J67">
     <sortCondition ref="J1:J67"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn dataDxfId="7" id="1" name="Bldg" xr3:uid="{00000000-0010-0000-0000-000001000000}"/>
-    <tableColumn id="2" name="Floor" xr3:uid="{00000000-0010-0000-0000-000002000000}"/>
-    <tableColumn dataDxfId="6" id="3" name="Closet" xr3:uid="{00000000-0010-0000-0000-000003000000}"/>
-    <tableColumn id="6" name="Room" xr3:uid="{00000000-0010-0000-0000-000006000000}"/>
-    <tableColumn dataDxfId="5" id="9" name="Jack number" xr3:uid="{00000000-0010-0000-0000-000009000000}"/>
-    <tableColumn dataDxfId="4" id="10" name="Jack ID" xr3:uid="{00000000-0010-0000-0000-00000A000000}">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Bldg" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Floor"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Closet" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Room"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Jack number" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Jack ID" dataDxfId="4">
       <calculatedColumnFormula>CONCATENATE("E40",Table8[[#This Row],[Room]],Table8[[#This Row],[Jack number]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" name="Switch number" xr3:uid="{00000000-0010-0000-0000-00000B000000}"/>
-    <tableColumn id="12" name="Switch Port" xr3:uid="{00000000-0010-0000-0000-00000C000000}"/>
-    <tableColumn dataDxfId="3" id="14" name="Switch ID" xr3:uid="{00000000-0010-0000-0000-00000E000000}"/>
-    <tableColumn dataDxfId="2" id="4" name="Column1" xr3:uid="{77FDD8B7-0E8E-470B-9766-99DD8D39DEE9}"/>
-    <tableColumn dataDxfId="1" id="5" name="jack" xr3:uid="{0783F28B-B913-4EF0-9491-B0BD77B5F71A}"/>
-    <tableColumn dataDxfId="0" id="7" name="notes" xr3:uid="{6F753DE2-2CD7-4A5C-96AA-0470953034E0}"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Switch number"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Switch Port"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Switch ID" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{77FDD8B7-0E8E-470B-9766-99DD8D39DEE9}" name="Column1" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{0783F28B-B913-4EF0-9491-B0BD77B5F71A}" name="jack" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{6F753DE2-2CD7-4A5C-96AA-0470953034E0}" name="notes" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showColumnStripes="0" showFirstColumn="0" showLastColumn="0" showRowStripes="1"/>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -928,10 +739,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -966,7 +777,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1001,7 +812,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1095,21 +906,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1126,7 +937,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1178,39 +989,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:W95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="80" zoomScaleNormal="80">
-      <selection activeCell="L2" sqref="L2:L81"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="2.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="12.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="11" max="11" style="16" width="9.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="16" width="25.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="16" width="26.0" collapsed="true"/>
-    <col min="14" max="22" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="1" max="1" width="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="16" collapsed="1"/>
+    <col min="12" max="12" width="25.5703125" style="16" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26" style="16" customWidth="1" collapsed="1"/>
+    <col min="14" max="22" width="15.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22">
+    <row r="1" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +1059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row ht="18.75" r="2" spans="2:22">
+    <row r="2" spans="2:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1278,40 +1089,40 @@
         <v>15</v>
       </c>
       <c r="L2" t="s">
-        <v>120</v>
+        <v>57</v>
       </c>
       <c r="M2" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="N2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="Q2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row ht="18.75" r="3" spans="2:22">
+    </row>
+    <row r="3" spans="2:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1341,10 +1152,10 @@
         <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>121</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="N3" t="s">
         <v>13</v>
@@ -1380,7 +1191,7 @@
         <v>33</v>
       </c>
     </row>
-    <row ht="18.75" r="4" spans="2:22">
+    <row r="4" spans="2:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -1410,13 +1221,13 @@
         <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="M4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="5" spans="2:22">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1446,13 +1257,13 @@
         <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="6" spans="2:22">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
@@ -1482,13 +1293,13 @@
         <v>15</v>
       </c>
       <c r="L6" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="7" spans="2:22">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
@@ -1518,13 +1329,13 @@
         <v>15</v>
       </c>
       <c r="L7" t="s">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="M7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="8" spans="2:22">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1554,10 +1365,10 @@
         <v>15</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row ht="18.75" r="9" spans="2:22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1587,13 +1398,13 @@
         <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="M9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="10" spans="2:22">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
@@ -1623,13 +1434,13 @@
         <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="M10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="11" spans="2:22">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
@@ -1640,7 +1451,7 @@
         <v>13</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>14</v>
@@ -1659,10 +1470,10 @@
         <v>15</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row ht="18.75" r="12" spans="2:22">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
@@ -1692,13 +1503,13 @@
         <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="M12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="13" spans="2:22">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
@@ -1728,13 +1539,13 @@
         <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="M13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="14" spans="2:22">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1764,13 +1575,13 @@
         <v>15</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="M14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="15" spans="2:22">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
@@ -1800,13 +1611,13 @@
         <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="M15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="16" spans="2:22">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
@@ -1836,13 +1647,13 @@
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="M16" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="17" spans="2:13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
@@ -1872,13 +1683,13 @@
         <v>15</v>
       </c>
       <c r="L17" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="M17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="18" spans="2:13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
@@ -1908,13 +1719,13 @@
         <v>15</v>
       </c>
       <c r="L18" t="s">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="M18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="19" spans="2:13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
@@ -1944,13 +1755,13 @@
         <v>15</v>
       </c>
       <c r="L19" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="M19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="20" spans="2:13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
@@ -1980,13 +1791,13 @@
         <v>15</v>
       </c>
       <c r="L20" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="M20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="21" spans="2:13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
@@ -2016,13 +1827,13 @@
         <v>15</v>
       </c>
       <c r="L21" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="M21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="22" spans="2:13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B22" s="4" t="s">
         <v>12</v>
       </c>
@@ -2052,13 +1863,13 @@
         <v>15</v>
       </c>
       <c r="L22" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="M22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="23" spans="2:13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
         <v>12</v>
       </c>
@@ -2088,13 +1899,13 @@
         <v>15</v>
       </c>
       <c r="L23" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="M23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="24" spans="2:13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>12</v>
       </c>
@@ -2124,13 +1935,13 @@
         <v>15</v>
       </c>
       <c r="L24" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="M24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row customFormat="1" ht="18.75" r="25" s="21" spans="2:13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" s="21" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="17" t="s">
         <v>12</v>
       </c>
@@ -2161,13 +1972,13 @@
       </c>
       <c r="K25" s="23"/>
       <c r="L25" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="M25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="26" spans="2:13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="4" t="s">
         <v>12</v>
       </c>
@@ -2197,13 +2008,13 @@
         <v>15</v>
       </c>
       <c r="L26" t="s">
-        <v>141</v>
+        <v>78</v>
       </c>
       <c r="M26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="27" spans="2:13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>12</v>
       </c>
@@ -2233,13 +2044,13 @@
         <v>15</v>
       </c>
       <c r="L27" t="s">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="M27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="28" spans="2:13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>12</v>
       </c>
@@ -2269,13 +2080,13 @@
         <v>15</v>
       </c>
       <c r="L28" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="M28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="29" spans="2:13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>12</v>
       </c>
@@ -2305,13 +2116,13 @@
         <v>15</v>
       </c>
       <c r="L29" t="s">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="M29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="30" spans="2:13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>12</v>
       </c>
@@ -2341,13 +2152,13 @@
         <v>15</v>
       </c>
       <c r="L30" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="M30" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="31" spans="2:13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B31" s="4" t="s">
         <v>12</v>
       </c>
@@ -2377,10 +2188,10 @@
         <v>15</v>
       </c>
       <c r="L31" s="16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row ht="18.75" r="32" spans="2:13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
@@ -2410,13 +2221,13 @@
         <v>15</v>
       </c>
       <c r="L32" t="s">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="M32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="33" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="4" t="s">
         <v>12</v>
       </c>
@@ -2446,13 +2257,13 @@
         <v>15</v>
       </c>
       <c r="L33" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="M33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="34" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="4" t="s">
         <v>12</v>
       </c>
@@ -2482,13 +2293,13 @@
         <v>15</v>
       </c>
       <c r="L34" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="M34" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="35" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="4" t="s">
         <v>12</v>
       </c>
@@ -2509,10 +2320,10 @@
         <v>15</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row ht="18.75" r="36" spans="2:12">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B36" s="4" t="s">
         <v>12</v>
       </c>
@@ -2533,10 +2344,10 @@
         <v>15</v>
       </c>
       <c r="K36" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row ht="18.75" r="37" spans="2:12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>12</v>
       </c>
@@ -2557,10 +2368,10 @@
         <v>15</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row ht="18.75" r="38" spans="2:12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B38" s="4" t="s">
         <v>12</v>
       </c>
@@ -2581,10 +2392,10 @@
         <v>15</v>
       </c>
       <c r="K38" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row ht="18.75" r="39" spans="2:12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
         <v>12</v>
       </c>
@@ -2605,10 +2416,10 @@
         <v>15</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row ht="18.75" r="40" spans="2:12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B40" s="4" t="s">
         <v>12</v>
       </c>
@@ -2629,10 +2440,10 @@
         <v>15</v>
       </c>
       <c r="K40" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row ht="18.75" r="41" spans="2:12">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B41" s="4" t="s">
         <v>12</v>
       </c>
@@ -2653,10 +2464,10 @@
         <v>15</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row ht="18.75" r="42" spans="2:12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B42" s="4" t="s">
         <v>12</v>
       </c>
@@ -2677,10 +2488,10 @@
         <v>15</v>
       </c>
       <c r="K42" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row ht="18.75" r="43" spans="2:12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B43" s="4" t="s">
         <v>12</v>
       </c>
@@ -2701,10 +2512,10 @@
         <v>15</v>
       </c>
       <c r="K43" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row ht="18.75" r="44" spans="2:12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B44" s="4" t="s">
         <v>12</v>
       </c>
@@ -2725,10 +2536,10 @@
         <v>15</v>
       </c>
       <c r="K44" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row ht="18.75" r="45" spans="2:12">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B45" s="4" t="s">
         <v>12</v>
       </c>
@@ -2749,10 +2560,10 @@
         <v>15</v>
       </c>
       <c r="K45" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row ht="18.75" r="46" spans="2:12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B46" s="4" t="s">
         <v>12</v>
       </c>
@@ -2773,10 +2584,10 @@
         <v>15</v>
       </c>
       <c r="K46" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row ht="18.75" r="47" spans="2:12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
         <v>12</v>
       </c>
@@ -2797,7 +2608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row ht="18.75" r="48" spans="2:12">
+    <row r="48" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B48" s="4" t="s">
         <v>12</v>
       </c>
@@ -2818,7 +2629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row ht="18.75" r="49" spans="2:12">
+    <row r="49" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B49" s="4" t="s">
         <v>12</v>
       </c>
@@ -2845,16 +2656,16 @@
         <v>1</v>
       </c>
       <c r="J49" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L49" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="M49" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="50" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B50" s="4" t="s">
         <v>12</v>
       </c>
@@ -2881,16 +2692,16 @@
         <v>2</v>
       </c>
       <c r="J50" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L50" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="M50" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="51" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
         <v>12</v>
       </c>
@@ -2917,16 +2728,16 @@
         <v>3</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L51" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="M51" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="52" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B52" s="4" t="s">
         <v>12</v>
       </c>
@@ -2953,16 +2764,16 @@
         <v>4</v>
       </c>
       <c r="J52" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L52" t="s">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="M52" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="53" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B53" s="4" t="s">
         <v>12</v>
       </c>
@@ -2989,16 +2800,16 @@
         <v>5</v>
       </c>
       <c r="J53" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L53" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="M53" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="54" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B54" s="4" t="s">
         <v>12</v>
       </c>
@@ -3025,16 +2836,16 @@
         <v>6</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L54" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="M54" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="55" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B55" s="4" t="s">
         <v>12</v>
       </c>
@@ -3061,16 +2872,16 @@
         <v>7</v>
       </c>
       <c r="J55" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L55" t="s">
-        <v>156</v>
+        <v>93</v>
       </c>
       <c r="M55" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row ht="18.75" r="56" spans="2:12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B56" s="4" t="s">
         <v>12</v>
       </c>
@@ -3097,16 +2908,16 @@
         <v>8</v>
       </c>
       <c r="J56" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L56" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="M56" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="57" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="4" t="s">
         <v>12</v>
       </c>
@@ -3133,16 +2944,16 @@
         <v>9</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L57" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="M57" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="58" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
         <v>12</v>
       </c>
@@ -3169,16 +2980,16 @@
         <v>10</v>
       </c>
       <c r="J58" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L58" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="M58" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="59" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B59" s="4" t="s">
         <v>12</v>
       </c>
@@ -3205,16 +3016,16 @@
         <v>11</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L59" t="s">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="M59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="60" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B60" s="4" t="s">
         <v>12</v>
       </c>
@@ -3241,16 +3052,16 @@
         <v>12</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L60" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="M60" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="61" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
         <v>12</v>
       </c>
@@ -3277,16 +3088,16 @@
         <v>13</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L61" t="s">
-        <v>162</v>
+        <v>99</v>
       </c>
       <c r="M61" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="62" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B62" s="4" t="s">
         <v>12</v>
       </c>
@@ -3313,16 +3124,16 @@
         <v>14</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L62" t="s">
-        <v>163</v>
+        <v>100</v>
       </c>
       <c r="M62" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="63" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
         <v>12</v>
       </c>
@@ -3349,16 +3160,16 @@
         <v>15</v>
       </c>
       <c r="J63" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L63" t="s">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="M63" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="64" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
         <v>12</v>
       </c>
@@ -3385,16 +3196,16 @@
         <v>16</v>
       </c>
       <c r="J64" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L64" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="M64" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="65" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B65" s="4" t="s">
         <v>12</v>
       </c>
@@ -3421,16 +3232,16 @@
         <v>17</v>
       </c>
       <c r="J65" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L65" t="s">
-        <v>166</v>
+        <v>103</v>
       </c>
       <c r="M65" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="66" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
         <v>12</v>
       </c>
@@ -3457,16 +3268,16 @@
         <v>18</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L66" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="M66" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="67" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B67" s="4" t="s">
         <v>12</v>
       </c>
@@ -3493,16 +3304,16 @@
         <v>19</v>
       </c>
       <c r="J67" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L67" t="s">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c r="M67" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="68" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
         <v>12</v>
       </c>
@@ -3529,16 +3340,16 @@
         <v>20</v>
       </c>
       <c r="J68" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L68" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="M68" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="69" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B69" s="4" t="s">
         <v>12</v>
       </c>
@@ -3565,16 +3376,16 @@
         <v>21</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L69" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="M69" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="70" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B70" s="4" t="s">
         <v>12</v>
       </c>
@@ -3601,16 +3412,16 @@
         <v>22</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L70" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="M70" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="71" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B71" s="4" t="s">
         <v>12</v>
       </c>
@@ -3637,16 +3448,16 @@
         <v>23</v>
       </c>
       <c r="J71" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L71" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="M71" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="72" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B72" s="4" t="s">
         <v>12</v>
       </c>
@@ -3673,16 +3484,16 @@
         <v>24</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L72" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="M72" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="73" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B73" s="4" t="s">
         <v>12</v>
       </c>
@@ -3709,16 +3520,16 @@
         <v>25</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L73" t="s">
-        <v>174</v>
+        <v>111</v>
       </c>
       <c r="M73" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="74" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B74" s="4" t="s">
         <v>12</v>
       </c>
@@ -3745,16 +3556,16 @@
         <v>26</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L74" t="s">
-        <v>175</v>
+        <v>112</v>
       </c>
       <c r="M74" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="75" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B75" s="4" t="s">
         <v>12</v>
       </c>
@@ -3781,16 +3592,16 @@
         <v>27</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L75" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
       <c r="M75" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="76" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B76" s="4" t="s">
         <v>12</v>
       </c>
@@ -3817,16 +3628,16 @@
         <v>28</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L76" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="M76" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="77" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B77" s="4" t="s">
         <v>12</v>
       </c>
@@ -3853,16 +3664,16 @@
         <v>29</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L77" t="s">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="M77" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="78" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B78" s="4" t="s">
         <v>12</v>
       </c>
@@ -3889,16 +3700,16 @@
         <v>30</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L78" t="s">
-        <v>179</v>
+        <v>116</v>
       </c>
       <c r="M78" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="79" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B79" s="4" t="s">
         <v>12</v>
       </c>
@@ -3925,16 +3736,16 @@
         <v>31</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L79" t="s">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="M79" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="80" spans="2:12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B80" s="4" t="s">
         <v>12</v>
       </c>
@@ -3961,16 +3772,16 @@
         <v>32</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L80" t="s">
-        <v>181</v>
+        <v>118</v>
       </c>
       <c r="M80" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="81" spans="2:14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B81" s="4" t="s">
         <v>12</v>
       </c>
@@ -3997,16 +3808,16 @@
         <v>33</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="L81" t="s">
-        <v>182</v>
+        <v>119</v>
       </c>
       <c r="M81" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row ht="18.75" r="82" spans="2:14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B82" s="4" t="s">
         <v>12</v>
       </c>
@@ -4024,13 +3835,13 @@
         <v>34</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="K82" s="16" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row ht="18.75" r="83" spans="2:14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B83" s="4" t="s">
         <v>12</v>
       </c>
@@ -4048,13 +3859,13 @@
         <v>35</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="K83" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row ht="18.75" r="84" spans="2:14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B84" s="4" t="s">
         <v>12</v>
       </c>
@@ -4072,13 +3883,13 @@
         <v>36</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="K84" s="16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row ht="18.75" r="85" spans="2:14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B85" s="4" t="s">
         <v>12</v>
       </c>
@@ -4096,13 +3907,13 @@
         <v>37</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="K85" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row ht="18.75" r="86" spans="2:14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="s">
         <v>12</v>
       </c>
@@ -4120,13 +3931,13 @@
         <v>38</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="K86" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row ht="18.75" r="87" spans="2:14">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B87" s="4" t="s">
         <v>12</v>
       </c>
@@ -4144,13 +3955,13 @@
         <v>39</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="K87" s="16" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row ht="18.75" r="88" spans="2:14">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B88" s="4" t="s">
         <v>12</v>
       </c>
@@ -4168,16 +3979,16 @@
         <v>40</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="K88" s="16" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="N88" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row ht="18.75" r="89" spans="2:14">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B89" s="4" t="s">
         <v>12</v>
       </c>
@@ -4195,13 +4006,13 @@
         <v>41</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="K89" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row ht="18.75" r="90" spans="2:14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B90" s="4" t="s">
         <v>12</v>
       </c>
@@ -4219,13 +4030,13 @@
         <v>42</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="K90" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row ht="18.75" r="91" spans="2:14">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B91" s="4" t="s">
         <v>12</v>
       </c>
@@ -4243,13 +4054,13 @@
         <v>43</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="K91" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row ht="18.75" r="92" spans="2:14">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B92" s="4" t="s">
         <v>12</v>
       </c>
@@ -4267,13 +4078,13 @@
         <v>44</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="K92" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row ht="18.75" r="93" spans="2:14">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B93" s="4" t="s">
         <v>12</v>
       </c>
@@ -4291,13 +4102,13 @@
         <v>45</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="K93" s="16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row ht="18.75" r="94" spans="2:14">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B94" s="4" t="s">
         <v>12</v>
       </c>
@@ -4315,13 +4126,13 @@
         <v>46</v>
       </c>
       <c r="J94" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="K94" s="16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row ht="18.75" r="95" spans="2:14">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
         <v>12</v>
       </c>
@@ -4339,15 +4150,561 @@
         <v>47</v>
       </c>
       <c r="J95" s="8" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D2E09A-1D39-4315-8436-9B98C254476F}">
+  <dimension ref="A1:B81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" style="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26" style="16" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>96</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>101</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>103</v>
+      </c>
+      <c r="B65" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>104</v>
+      </c>
+      <c r="B66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>106</v>
+      </c>
+      <c r="B68" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>111</v>
+      </c>
+      <c r="B73" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>113</v>
+      </c>
+      <c r="B75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>117</v>
+      </c>
+      <c r="B79" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>118</v>
+      </c>
+      <c r="B80" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>119</v>
+      </c>
+      <c r="B81" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4358,15 +4715,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AA23CDEFC02EC54593F277F7A1CD59F8" ma:contentTypeVersion="" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0217942aed0963c881c88d9219887481">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9A8E6B13-D3EE-45C8-BA83-0B51A9E6D38C" xmlns:ns3="9a8e6b13-d3ee-45c8-ba83-0b51a9e6d38c" xmlns:ns4="5fca64ad-72b9-45fe-9325-91f322831a9a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ce533ab14b009d344cf7e7b5a509a7a6" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="9A8E6B13-D3EE-45C8-BA83-0B51A9E6D38C"/>
@@ -4580,14 +4928,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20FE8F80-E077-465E-A567-9239B2F61143}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{20FE8F80-E077-465E-A567-9239B2F61143}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36CB6C07-CD07-4750-BE95-F91256FCCABE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8541735-1185-405B-9EA0-FA70282A2902}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9A8E6B13-D3EE-45C8-BA83-0B51A9E6D38C"/>
+    <ds:schemaRef ds:uri="9a8e6b13-d3ee-45c8-ba83-0b51a9e6d38c"/>
+    <ds:schemaRef ds:uri="5fca64ad-72b9-45fe-9325-91f322831a9a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8541735-1185-405B-9EA0-FA70282A2902}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36CB6C07-CD07-4750-BE95-F91256FCCABE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>